--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4913"/>
+  <dimension ref="A1:F4916"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98711,6 +98711,66 @@
         <v>145055</v>
       </c>
     </row>
+    <row r="4914">
+      <c r="A4914" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B4914" t="n">
+        <v>1.29391</v>
+      </c>
+      <c r="C4914" t="n">
+        <v>1.29645</v>
+      </c>
+      <c r="D4914" t="n">
+        <v>1.28395</v>
+      </c>
+      <c r="E4914" t="n">
+        <v>1.2867</v>
+      </c>
+      <c r="F4914" t="n">
+        <v>580818</v>
+      </c>
+    </row>
+    <row r="4915">
+      <c r="A4915" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B4915" t="n">
+        <v>1.2867</v>
+      </c>
+      <c r="C4915" t="n">
+        <v>1.29041</v>
+      </c>
+      <c r="D4915" t="n">
+        <v>1.28157</v>
+      </c>
+      <c r="E4915" t="n">
+        <v>1.28519</v>
+      </c>
+      <c r="F4915" t="n">
+        <v>294044</v>
+      </c>
+    </row>
+    <row r="4916">
+      <c r="A4916" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4916" t="n">
+        <v>1.28482</v>
+      </c>
+      <c r="C4916" t="n">
+        <v>1.28837</v>
+      </c>
+      <c r="D4916" t="n">
+        <v>1.28071</v>
+      </c>
+      <c r="E4916" t="n">
+        <v>1.28497</v>
+      </c>
+      <c r="F4916" t="n">
+        <v>186653</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4916"/>
+  <dimension ref="A1:F4925"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98771,6 +98771,186 @@
         <v>186653</v>
       </c>
     </row>
+    <row r="4917">
+      <c r="A4917" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B4917" t="n">
+        <v>1.28482</v>
+      </c>
+      <c r="C4917" t="n">
+        <v>1.28837</v>
+      </c>
+      <c r="D4917" t="n">
+        <v>1.27976</v>
+      </c>
+      <c r="E4917" t="n">
+        <v>1.28214</v>
+      </c>
+      <c r="F4917" t="n">
+        <v>324879</v>
+      </c>
+    </row>
+    <row r="4918">
+      <c r="A4918" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B4918" t="n">
+        <v>1.28214</v>
+      </c>
+      <c r="C4918" t="n">
+        <v>1.29047</v>
+      </c>
+      <c r="D4918" t="n">
+        <v>1.28092</v>
+      </c>
+      <c r="E4918" t="n">
+        <v>1.29015</v>
+      </c>
+      <c r="F4918" t="n">
+        <v>283736</v>
+      </c>
+    </row>
+    <row r="4919">
+      <c r="A4919" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B4919" t="n">
+        <v>1.29015</v>
+      </c>
+      <c r="C4919" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="D4919" t="n">
+        <v>1.28753</v>
+      </c>
+      <c r="E4919" t="n">
+        <v>1.29408</v>
+      </c>
+      <c r="F4919" t="n">
+        <v>340385</v>
+      </c>
+    </row>
+    <row r="4920">
+      <c r="A4920" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B4920" t="n">
+        <v>1.29408</v>
+      </c>
+      <c r="C4920" t="n">
+        <v>1.29956</v>
+      </c>
+      <c r="D4920" t="n">
+        <v>1.27818</v>
+      </c>
+      <c r="E4920" t="n">
+        <v>1.2796</v>
+      </c>
+      <c r="F4920" t="n">
+        <v>788480</v>
+      </c>
+    </row>
+    <row r="4921">
+      <c r="A4921" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B4921" t="n">
+        <v>1.2796</v>
+      </c>
+      <c r="C4921" t="n">
+        <v>1.28881</v>
+      </c>
+      <c r="D4921" t="n">
+        <v>1.27628</v>
+      </c>
+      <c r="E4921" t="n">
+        <v>1.28469</v>
+      </c>
+      <c r="F4921" t="n">
+        <v>394998</v>
+      </c>
+    </row>
+    <row r="4922">
+      <c r="A4922" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B4922" t="n">
+        <v>1.28338</v>
+      </c>
+      <c r="C4922" t="n">
+        <v>1.28725</v>
+      </c>
+      <c r="D4922" t="n">
+        <v>1.28282</v>
+      </c>
+      <c r="E4922" t="n">
+        <v>1.28344</v>
+      </c>
+      <c r="F4922" t="n">
+        <v>290111</v>
+      </c>
+    </row>
+    <row r="4923">
+      <c r="A4923" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B4923" t="n">
+        <v>1.28344</v>
+      </c>
+      <c r="C4923" t="n">
+        <v>1.28412</v>
+      </c>
+      <c r="D4923" t="n">
+        <v>1.27412</v>
+      </c>
+      <c r="E4923" t="n">
+        <v>1.27758</v>
+      </c>
+      <c r="F4923" t="n">
+        <v>289449</v>
+      </c>
+    </row>
+    <row r="4924">
+      <c r="A4924" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B4924" t="n">
+        <v>1.27758</v>
+      </c>
+      <c r="C4924" t="n">
+        <v>1.2805</v>
+      </c>
+      <c r="D4924" t="n">
+        <v>1.26799</v>
+      </c>
+      <c r="E4924" t="n">
+        <v>1.27105</v>
+      </c>
+      <c r="F4924" t="n">
+        <v>336956</v>
+      </c>
+    </row>
+    <row r="4925">
+      <c r="A4925" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4925" t="n">
+        <v>1.27105</v>
+      </c>
+      <c r="C4925" t="n">
+        <v>1.27281</v>
+      </c>
+      <c r="D4925" t="n">
+        <v>1.26201</v>
+      </c>
+      <c r="E4925" t="n">
+        <v>1.26572</v>
+      </c>
+      <c r="F4925" t="n">
+        <v>233944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4925"/>
+  <dimension ref="A1:F4927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98951,6 +98951,46 @@
         <v>233944</v>
       </c>
     </row>
+    <row r="4926">
+      <c r="A4926" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B4926" t="n">
+        <v>1.27105</v>
+      </c>
+      <c r="C4926" t="n">
+        <v>1.27281</v>
+      </c>
+      <c r="D4926" t="n">
+        <v>1.26201</v>
+      </c>
+      <c r="E4926" t="n">
+        <v>1.27082</v>
+      </c>
+      <c r="F4926" t="n">
+        <v>347566</v>
+      </c>
+    </row>
+    <row r="4927">
+      <c r="A4927" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4927" t="n">
+        <v>1.27082</v>
+      </c>
+      <c r="C4927" t="n">
+        <v>1.2741</v>
+      </c>
+      <c r="D4927" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E4927" t="n">
+        <v>1.2727</v>
+      </c>
+      <c r="F4927" t="n">
+        <v>65552</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4927"/>
+  <dimension ref="A1:F4941"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98991,6 +98991,286 @@
         <v>65552</v>
       </c>
     </row>
+    <row r="4928">
+      <c r="A4928" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B4928" t="n">
+        <v>1.27082</v>
+      </c>
+      <c r="C4928" t="n">
+        <v>1.27921</v>
+      </c>
+      <c r="D4928" t="n">
+        <v>1.2685</v>
+      </c>
+      <c r="E4928" t="n">
+        <v>1.2737</v>
+      </c>
+      <c r="F4928" t="n">
+        <v>324083</v>
+      </c>
+    </row>
+    <row r="4929">
+      <c r="A4929" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B4929" t="n">
+        <v>1.2737</v>
+      </c>
+      <c r="C4929" t="n">
+        <v>1.27889</v>
+      </c>
+      <c r="D4929" t="n">
+        <v>1.27128</v>
+      </c>
+      <c r="E4929" t="n">
+        <v>1.27834</v>
+      </c>
+      <c r="F4929" t="n">
+        <v>256232</v>
+      </c>
+    </row>
+    <row r="4930">
+      <c r="A4930" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B4930" t="n">
+        <v>1.27834</v>
+      </c>
+      <c r="C4930" t="n">
+        <v>1.27854</v>
+      </c>
+      <c r="D4930" t="n">
+        <v>1.2684</v>
+      </c>
+      <c r="E4930" t="n">
+        <v>1.27475</v>
+      </c>
+      <c r="F4930" t="n">
+        <v>291468</v>
+      </c>
+    </row>
+    <row r="4931">
+      <c r="A4931" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B4931" t="n">
+        <v>1.27475</v>
+      </c>
+      <c r="C4931" t="n">
+        <v>1.2782</v>
+      </c>
+      <c r="D4931" t="n">
+        <v>1.27119</v>
+      </c>
+      <c r="E4931" t="n">
+        <v>1.27186</v>
+      </c>
+      <c r="F4931" t="n">
+        <v>281609</v>
+      </c>
+    </row>
+    <row r="4932">
+      <c r="A4932" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B4932" t="n">
+        <v>1.27186</v>
+      </c>
+      <c r="C4932" t="n">
+        <v>1.28189</v>
+      </c>
+      <c r="D4932" t="n">
+        <v>1.26693</v>
+      </c>
+      <c r="E4932" t="n">
+        <v>1.26755</v>
+      </c>
+      <c r="F4932" t="n">
+        <v>351451</v>
+      </c>
+    </row>
+    <row r="4933">
+      <c r="A4933" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B4933" t="n">
+        <v>1.26755</v>
+      </c>
+      <c r="C4933" t="n">
+        <v>1.27384</v>
+      </c>
+      <c r="D4933" t="n">
+        <v>1.2666</v>
+      </c>
+      <c r="E4933" t="n">
+        <v>1.2692</v>
+      </c>
+      <c r="F4933" t="n">
+        <v>306744</v>
+      </c>
+    </row>
+    <row r="4934">
+      <c r="A4934" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B4934" t="n">
+        <v>1.26885</v>
+      </c>
+      <c r="C4934" t="n">
+        <v>1.27147</v>
+      </c>
+      <c r="D4934" t="n">
+        <v>1.26163</v>
+      </c>
+      <c r="E4934" t="n">
+        <v>1.26798</v>
+      </c>
+      <c r="F4934" t="n">
+        <v>319767</v>
+      </c>
+    </row>
+    <row r="4935">
+      <c r="A4935" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B4935" t="n">
+        <v>1.26798</v>
+      </c>
+      <c r="C4935" t="n">
+        <v>1.27522</v>
+      </c>
+      <c r="D4935" t="n">
+        <v>1.26726</v>
+      </c>
+      <c r="E4935" t="n">
+        <v>1.27001</v>
+      </c>
+      <c r="F4935" t="n">
+        <v>377001</v>
+      </c>
+    </row>
+    <row r="4936">
+      <c r="A4936" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B4936" t="n">
+        <v>1.27001</v>
+      </c>
+      <c r="C4936" t="n">
+        <v>1.27661</v>
+      </c>
+      <c r="D4936" t="n">
+        <v>1.26871</v>
+      </c>
+      <c r="E4936" t="n">
+        <v>1.2731</v>
+      </c>
+      <c r="F4936" t="n">
+        <v>338412</v>
+      </c>
+    </row>
+    <row r="4937">
+      <c r="A4937" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B4937" t="n">
+        <v>1.2731</v>
+      </c>
+      <c r="C4937" t="n">
+        <v>1.27874</v>
+      </c>
+      <c r="D4937" t="n">
+        <v>1.27024</v>
+      </c>
+      <c r="E4937" t="n">
+        <v>1.27462</v>
+      </c>
+      <c r="F4937" t="n">
+        <v>701952</v>
+      </c>
+    </row>
+    <row r="4938">
+      <c r="A4938" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B4938" t="n">
+        <v>1.27462</v>
+      </c>
+      <c r="C4938" t="n">
+        <v>1.2766</v>
+      </c>
+      <c r="D4938" t="n">
+        <v>1.26891</v>
+      </c>
+      <c r="E4938" t="n">
+        <v>1.27317</v>
+      </c>
+      <c r="F4938" t="n">
+        <v>330648</v>
+      </c>
+    </row>
+    <row r="4939">
+      <c r="A4939" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B4939" t="n">
+        <v>1.2726</v>
+      </c>
+      <c r="C4939" t="n">
+        <v>1.2767</v>
+      </c>
+      <c r="D4939" t="n">
+        <v>1.27103</v>
+      </c>
+      <c r="E4939" t="n">
+        <v>1.27557</v>
+      </c>
+      <c r="F4939" t="n">
+        <v>273025</v>
+      </c>
+    </row>
+    <row r="4940">
+      <c r="A4940" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B4940" t="n">
+        <v>1.27557</v>
+      </c>
+      <c r="C4940" t="n">
+        <v>1.28003</v>
+      </c>
+      <c r="D4940" t="n">
+        <v>1.27185</v>
+      </c>
+      <c r="E4940" t="n">
+        <v>1.27316</v>
+      </c>
+      <c r="F4940" t="n">
+        <v>282895</v>
+      </c>
+    </row>
+    <row r="4941">
+      <c r="A4941" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4941" t="n">
+        <v>1.27316</v>
+      </c>
+      <c r="C4941" t="n">
+        <v>1.27457</v>
+      </c>
+      <c r="D4941" t="n">
+        <v>1.27251</v>
+      </c>
+      <c r="E4941" t="n">
+        <v>1.27385</v>
+      </c>
+      <c r="F4941" t="n">
+        <v>41734</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4941"/>
+  <dimension ref="A1:F4948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99271,6 +99271,146 @@
         <v>41734</v>
       </c>
     </row>
+    <row r="4942">
+      <c r="A4942" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B4942" t="n">
+        <v>1.27221</v>
+      </c>
+      <c r="C4942" t="n">
+        <v>1.27286</v>
+      </c>
+      <c r="D4942" t="n">
+        <v>1.25908</v>
+      </c>
+      <c r="E4942" t="n">
+        <v>1.25989</v>
+      </c>
+      <c r="F4942" t="n">
+        <v>565742</v>
+      </c>
+    </row>
+    <row r="4943">
+      <c r="A4943" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B4943" t="n">
+        <v>1.25989</v>
+      </c>
+      <c r="C4943" t="n">
+        <v>1.26544</v>
+      </c>
+      <c r="D4943" t="n">
+        <v>1.25479</v>
+      </c>
+      <c r="E4943" t="n">
+        <v>1.25766</v>
+      </c>
+      <c r="F4943" t="n">
+        <v>339968</v>
+      </c>
+    </row>
+    <row r="4944">
+      <c r="A4944" s="2" t="n">
+        <v>45165</v>
+      </c>
+      <c r="B4944" t="n">
+        <v>1.2587</v>
+      </c>
+      <c r="C4944" t="n">
+        <v>1.26109</v>
+      </c>
+      <c r="D4944" t="n">
+        <v>1.25653</v>
+      </c>
+      <c r="E4944" t="n">
+        <v>1.2601</v>
+      </c>
+      <c r="F4944" t="n">
+        <v>231445</v>
+      </c>
+    </row>
+    <row r="4945">
+      <c r="A4945" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B4945" t="n">
+        <v>1.2601</v>
+      </c>
+      <c r="C4945" t="n">
+        <v>1.26548</v>
+      </c>
+      <c r="D4945" t="n">
+        <v>1.25626</v>
+      </c>
+      <c r="E4945" t="n">
+        <v>1.26433</v>
+      </c>
+      <c r="F4945" t="n">
+        <v>309673</v>
+      </c>
+    </row>
+    <row r="4946">
+      <c r="A4946" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B4946" t="n">
+        <v>1.26433</v>
+      </c>
+      <c r="C4946" t="n">
+        <v>1.27462</v>
+      </c>
+      <c r="D4946" t="n">
+        <v>1.26186</v>
+      </c>
+      <c r="E4946" t="n">
+        <v>1.27205</v>
+      </c>
+      <c r="F4946" t="n">
+        <v>293414</v>
+      </c>
+    </row>
+    <row r="4947">
+      <c r="A4947" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B4947" t="n">
+        <v>1.27205</v>
+      </c>
+      <c r="C4947" t="n">
+        <v>1.27342</v>
+      </c>
+      <c r="D4947" t="n">
+        <v>1.26523</v>
+      </c>
+      <c r="E4947" t="n">
+        <v>1.26724</v>
+      </c>
+      <c r="F4947" t="n">
+        <v>300936</v>
+      </c>
+    </row>
+    <row r="4948">
+      <c r="A4948" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4948" t="n">
+        <v>1.26724</v>
+      </c>
+      <c r="C4948" t="n">
+        <v>1.27127</v>
+      </c>
+      <c r="D4948" t="n">
+        <v>1.25773</v>
+      </c>
+      <c r="E4948" t="n">
+        <v>1.25857</v>
+      </c>
+      <c r="F4948" t="n">
+        <v>302263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4948"/>
+  <dimension ref="A1:F4987"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99411,6 +99411,786 @@
         <v>302263</v>
       </c>
     </row>
+    <row r="4949">
+      <c r="A4949" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B4949" t="n">
+        <v>1.27205</v>
+      </c>
+      <c r="C4949" t="n">
+        <v>1.27342</v>
+      </c>
+      <c r="D4949" t="n">
+        <v>1.26523</v>
+      </c>
+      <c r="E4949" t="n">
+        <v>1.26724</v>
+      </c>
+      <c r="F4949" t="n">
+        <v>300963</v>
+      </c>
+    </row>
+    <row r="4950">
+      <c r="A4950" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B4950" t="n">
+        <v>1.26724</v>
+      </c>
+      <c r="C4950" t="n">
+        <v>1.27127</v>
+      </c>
+      <c r="D4950" t="n">
+        <v>1.25773</v>
+      </c>
+      <c r="E4950" t="n">
+        <v>1.25857</v>
+      </c>
+      <c r="F4950" t="n">
+        <v>302304</v>
+      </c>
+    </row>
+    <row r="4951">
+      <c r="A4951" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="B4951" t="n">
+        <v>1.2586</v>
+      </c>
+      <c r="C4951" t="n">
+        <v>1.26425</v>
+      </c>
+      <c r="D4951" t="n">
+        <v>1.25841</v>
+      </c>
+      <c r="E4951" t="n">
+        <v>1.26206</v>
+      </c>
+      <c r="F4951" t="n">
+        <v>166853</v>
+      </c>
+    </row>
+    <row r="4952">
+      <c r="A4952" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B4952" t="n">
+        <v>1.26206</v>
+      </c>
+      <c r="C4952" t="n">
+        <v>1.26317</v>
+      </c>
+      <c r="D4952" t="n">
+        <v>1.25279</v>
+      </c>
+      <c r="E4952" t="n">
+        <v>1.25639</v>
+      </c>
+      <c r="F4952" t="n">
+        <v>296180</v>
+      </c>
+    </row>
+    <row r="4953">
+      <c r="A4953" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B4953" t="n">
+        <v>1.25639</v>
+      </c>
+      <c r="C4953" t="n">
+        <v>1.25879</v>
+      </c>
+      <c r="D4953" t="n">
+        <v>1.24814</v>
+      </c>
+      <c r="E4953" t="n">
+        <v>1.25075</v>
+      </c>
+      <c r="F4953" t="n">
+        <v>283893</v>
+      </c>
+    </row>
+    <row r="4954">
+      <c r="A4954" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B4954" t="n">
+        <v>1.25075</v>
+      </c>
+      <c r="C4954" t="n">
+        <v>1.25082</v>
+      </c>
+      <c r="D4954" t="n">
+        <v>1.24454</v>
+      </c>
+      <c r="E4954" t="n">
+        <v>1.2472</v>
+      </c>
+      <c r="F4954" t="n">
+        <v>256890</v>
+      </c>
+    </row>
+    <row r="4955">
+      <c r="A4955" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B4955" t="n">
+        <v>1.2472</v>
+      </c>
+      <c r="C4955" t="n">
+        <v>1.25142</v>
+      </c>
+      <c r="D4955" t="n">
+        <v>1.2451</v>
+      </c>
+      <c r="E4955" t="n">
+        <v>1.24641</v>
+      </c>
+      <c r="F4955" t="n">
+        <v>244454</v>
+      </c>
+    </row>
+    <row r="4956">
+      <c r="A4956" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B4956" t="n">
+        <v>1.24898</v>
+      </c>
+      <c r="C4956" t="n">
+        <v>1.2548</v>
+      </c>
+      <c r="D4956" t="n">
+        <v>1.24631</v>
+      </c>
+      <c r="E4956" t="n">
+        <v>1.25089</v>
+      </c>
+      <c r="F4956" t="n">
+        <v>247789</v>
+      </c>
+    </row>
+    <row r="4957">
+      <c r="A4957" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B4957" t="n">
+        <v>1.25089</v>
+      </c>
+      <c r="C4957" t="n">
+        <v>1.25295</v>
+      </c>
+      <c r="D4957" t="n">
+        <v>1.24592</v>
+      </c>
+      <c r="E4957" t="n">
+        <v>1.24879</v>
+      </c>
+      <c r="F4957" t="n">
+        <v>232933</v>
+      </c>
+    </row>
+    <row r="4958">
+      <c r="A4958" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B4958" t="n">
+        <v>1.24879</v>
+      </c>
+      <c r="C4958" t="n">
+        <v>1.25117</v>
+      </c>
+      <c r="D4958" t="n">
+        <v>1.24331</v>
+      </c>
+      <c r="E4958" t="n">
+        <v>1.24898</v>
+      </c>
+      <c r="F4958" t="n">
+        <v>307361</v>
+      </c>
+    </row>
+    <row r="4959">
+      <c r="A4959" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B4959" t="n">
+        <v>1.24898</v>
+      </c>
+      <c r="C4959" t="n">
+        <v>1.25062</v>
+      </c>
+      <c r="D4959" t="n">
+        <v>1.23963</v>
+      </c>
+      <c r="E4959" t="n">
+        <v>1.24081</v>
+      </c>
+      <c r="F4959" t="n">
+        <v>309533</v>
+      </c>
+    </row>
+    <row r="4960">
+      <c r="A4960" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B4960" t="n">
+        <v>1.24081</v>
+      </c>
+      <c r="C4960" t="n">
+        <v>1.24459</v>
+      </c>
+      <c r="D4960" t="n">
+        <v>1.23785</v>
+      </c>
+      <c r="E4960" t="n">
+        <v>1.23808</v>
+      </c>
+      <c r="F4960" t="n">
+        <v>256289</v>
+      </c>
+    </row>
+    <row r="4961">
+      <c r="A4961" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B4961" t="n">
+        <v>1.23814</v>
+      </c>
+      <c r="C4961" t="n">
+        <v>1.24104</v>
+      </c>
+      <c r="D4961" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="E4961" t="n">
+        <v>1.2382</v>
+      </c>
+      <c r="F4961" t="n">
+        <v>218246</v>
+      </c>
+    </row>
+    <row r="4962">
+      <c r="A4962" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B4962" t="n">
+        <v>1.2382</v>
+      </c>
+      <c r="C4962" t="n">
+        <v>1.24248</v>
+      </c>
+      <c r="D4962" t="n">
+        <v>1.23699</v>
+      </c>
+      <c r="E4962" t="n">
+        <v>1.23916</v>
+      </c>
+      <c r="F4962" t="n">
+        <v>231216</v>
+      </c>
+    </row>
+    <row r="4963">
+      <c r="A4963" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B4963" t="n">
+        <v>1.23916</v>
+      </c>
+      <c r="C4963" t="n">
+        <v>1.24214</v>
+      </c>
+      <c r="D4963" t="n">
+        <v>1.23317</v>
+      </c>
+      <c r="E4963" t="n">
+        <v>1.23433</v>
+      </c>
+      <c r="F4963" t="n">
+        <v>316171</v>
+      </c>
+    </row>
+    <row r="4964">
+      <c r="A4964" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B4964" t="n">
+        <v>1.23433</v>
+      </c>
+      <c r="C4964" t="n">
+        <v>1.23462</v>
+      </c>
+      <c r="D4964" t="n">
+        <v>1.22369</v>
+      </c>
+      <c r="E4964" t="n">
+        <v>1.22941</v>
+      </c>
+      <c r="F4964" t="n">
+        <v>305463</v>
+      </c>
+    </row>
+    <row r="4965">
+      <c r="A4965" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B4965" t="n">
+        <v>1.22941</v>
+      </c>
+      <c r="C4965" t="n">
+        <v>1.22951</v>
+      </c>
+      <c r="D4965" t="n">
+        <v>1.22304</v>
+      </c>
+      <c r="E4965" t="n">
+        <v>1.22348</v>
+      </c>
+      <c r="F4965" t="n">
+        <v>279698</v>
+      </c>
+    </row>
+    <row r="4966">
+      <c r="A4966" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B4966" t="n">
+        <v>1.22348</v>
+      </c>
+      <c r="C4966" t="n">
+        <v>1.225</v>
+      </c>
+      <c r="D4966" t="n">
+        <v>1.21936</v>
+      </c>
+      <c r="E4966" t="n">
+        <v>1.22112</v>
+      </c>
+      <c r="F4966" t="n">
+        <v>280165</v>
+      </c>
+    </row>
+    <row r="4967">
+      <c r="A4967" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B4967" t="n">
+        <v>1.22112</v>
+      </c>
+      <c r="C4967" t="n">
+        <v>1.22156</v>
+      </c>
+      <c r="D4967" t="n">
+        <v>1.21521</v>
+      </c>
+      <c r="E4967" t="n">
+        <v>1.21576</v>
+      </c>
+      <c r="F4967" t="n">
+        <v>283174</v>
+      </c>
+    </row>
+    <row r="4968">
+      <c r="A4968" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B4968" t="n">
+        <v>1.21576</v>
+      </c>
+      <c r="C4968" t="n">
+        <v>1.21641</v>
+      </c>
+      <c r="D4968" t="n">
+        <v>1.21102</v>
+      </c>
+      <c r="E4968" t="n">
+        <v>1.21345</v>
+      </c>
+      <c r="F4968" t="n">
+        <v>298044</v>
+      </c>
+    </row>
+    <row r="4969">
+      <c r="A4969" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B4969" t="n">
+        <v>1.21345</v>
+      </c>
+      <c r="C4969" t="n">
+        <v>1.22246</v>
+      </c>
+      <c r="D4969" t="n">
+        <v>1.21197</v>
+      </c>
+      <c r="E4969" t="n">
+        <v>1.21975</v>
+      </c>
+      <c r="F4969" t="n">
+        <v>317888</v>
+      </c>
+    </row>
+    <row r="4970">
+      <c r="A4970" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B4970" t="n">
+        <v>1.21975</v>
+      </c>
+      <c r="C4970" t="n">
+        <v>1.22716</v>
+      </c>
+      <c r="D4970" t="n">
+        <v>1.218</v>
+      </c>
+      <c r="E4970" t="n">
+        <v>1.2202</v>
+      </c>
+      <c r="F4970" t="n">
+        <v>329193</v>
+      </c>
+    </row>
+    <row r="4971">
+      <c r="A4971" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B4971" t="n">
+        <v>1.21927</v>
+      </c>
+      <c r="C4971" t="n">
+        <v>1.22198</v>
+      </c>
+      <c r="D4971" t="n">
+        <v>1.20861</v>
+      </c>
+      <c r="E4971" t="n">
+        <v>1.20865</v>
+      </c>
+      <c r="F4971" t="n">
+        <v>298829</v>
+      </c>
+    </row>
+    <row r="4972">
+      <c r="A4972" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B4972" t="n">
+        <v>1.20865</v>
+      </c>
+      <c r="C4972" t="n">
+        <v>1.21017</v>
+      </c>
+      <c r="D4972" t="n">
+        <v>1.20521</v>
+      </c>
+      <c r="E4972" t="n">
+        <v>1.20763</v>
+      </c>
+      <c r="F4972" t="n">
+        <v>343348</v>
+      </c>
+    </row>
+    <row r="4973">
+      <c r="A4973" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B4973" t="n">
+        <v>1.20763</v>
+      </c>
+      <c r="C4973" t="n">
+        <v>1.21767</v>
+      </c>
+      <c r="D4973" t="n">
+        <v>1.20371</v>
+      </c>
+      <c r="E4973" t="n">
+        <v>1.21333</v>
+      </c>
+      <c r="F4973" t="n">
+        <v>311928</v>
+      </c>
+    </row>
+    <row r="4974">
+      <c r="A4974" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B4974" t="n">
+        <v>1.21333</v>
+      </c>
+      <c r="C4974" t="n">
+        <v>1.21958</v>
+      </c>
+      <c r="D4974" t="n">
+        <v>1.21077</v>
+      </c>
+      <c r="E4974" t="n">
+        <v>1.2191</v>
+      </c>
+      <c r="F4974" t="n">
+        <v>310280</v>
+      </c>
+    </row>
+    <row r="4975">
+      <c r="A4975" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B4975" t="n">
+        <v>1.2191</v>
+      </c>
+      <c r="C4975" t="n">
+        <v>1.22611</v>
+      </c>
+      <c r="D4975" t="n">
+        <v>1.21054</v>
+      </c>
+      <c r="E4975" t="n">
+        <v>1.22356</v>
+      </c>
+      <c r="F4975" t="n">
+        <v>367337</v>
+      </c>
+    </row>
+    <row r="4976">
+      <c r="A4976" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B4976" t="n">
+        <v>1.22003</v>
+      </c>
+      <c r="C4976" t="n">
+        <v>1.22439</v>
+      </c>
+      <c r="D4976" t="n">
+        <v>1.21628</v>
+      </c>
+      <c r="E4976" t="n">
+        <v>1.22373</v>
+      </c>
+      <c r="F4976" t="n">
+        <v>276302</v>
+      </c>
+    </row>
+    <row r="4977">
+      <c r="A4977" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B4977" t="n">
+        <v>1.22373</v>
+      </c>
+      <c r="C4977" t="n">
+        <v>1.22916</v>
+      </c>
+      <c r="D4977" t="n">
+        <v>1.22116</v>
+      </c>
+      <c r="E4977" t="n">
+        <v>1.22857</v>
+      </c>
+      <c r="F4977" t="n">
+        <v>329368</v>
+      </c>
+    </row>
+    <row r="4978">
+      <c r="A4978" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B4978" t="n">
+        <v>1.22857</v>
+      </c>
+      <c r="C4978" t="n">
+        <v>1.23374</v>
+      </c>
+      <c r="D4978" t="n">
+        <v>1.2268</v>
+      </c>
+      <c r="E4978" t="n">
+        <v>1.23129</v>
+      </c>
+      <c r="F4978" t="n">
+        <v>329208</v>
+      </c>
+    </row>
+    <row r="4979">
+      <c r="A4979" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B4979" t="n">
+        <v>1.23129</v>
+      </c>
+      <c r="C4979" t="n">
+        <v>1.23316</v>
+      </c>
+      <c r="D4979" t="n">
+        <v>1.21713</v>
+      </c>
+      <c r="E4979" t="n">
+        <v>1.21741</v>
+      </c>
+      <c r="F4979" t="n">
+        <v>311229</v>
+      </c>
+    </row>
+    <row r="4980">
+      <c r="A4980" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B4980" t="n">
+        <v>1.21741</v>
+      </c>
+      <c r="C4980" t="n">
+        <v>1.22253</v>
+      </c>
+      <c r="D4980" t="n">
+        <v>1.21223</v>
+      </c>
+      <c r="E4980" t="n">
+        <v>1.21418</v>
+      </c>
+      <c r="F4980" t="n">
+        <v>298871</v>
+      </c>
+    </row>
+    <row r="4981">
+      <c r="A4981" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B4981" t="n">
+        <v>1.21285</v>
+      </c>
+      <c r="C4981" t="n">
+        <v>1.22194</v>
+      </c>
+      <c r="D4981" t="n">
+        <v>1.21285</v>
+      </c>
+      <c r="E4981" t="n">
+        <v>1.22115</v>
+      </c>
+      <c r="F4981" t="n">
+        <v>265699</v>
+      </c>
+    </row>
+    <row r="4982">
+      <c r="A4982" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B4982" t="n">
+        <v>1.22115</v>
+      </c>
+      <c r="C4982" t="n">
+        <v>1.22163</v>
+      </c>
+      <c r="D4982" t="n">
+        <v>1.21327</v>
+      </c>
+      <c r="E4982" t="n">
+        <v>1.21827</v>
+      </c>
+      <c r="F4982" t="n">
+        <v>289629</v>
+      </c>
+    </row>
+    <row r="4983">
+      <c r="A4983" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B4983" t="n">
+        <v>1.21827</v>
+      </c>
+      <c r="C4983" t="n">
+        <v>1.22111</v>
+      </c>
+      <c r="D4983" t="n">
+        <v>1.21368</v>
+      </c>
+      <c r="E4983" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="F4983" t="n">
+        <v>291972</v>
+      </c>
+    </row>
+    <row r="4984">
+      <c r="A4984" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B4984" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="C4984" t="n">
+        <v>1.21917</v>
+      </c>
+      <c r="D4984" t="n">
+        <v>1.20899</v>
+      </c>
+      <c r="E4984" t="n">
+        <v>1.21429</v>
+      </c>
+      <c r="F4984" t="n">
+        <v>698388</v>
+      </c>
+    </row>
+    <row r="4985">
+      <c r="A4985" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B4985" t="n">
+        <v>1.21429</v>
+      </c>
+      <c r="C4985" t="n">
+        <v>1.21703</v>
+      </c>
+      <c r="D4985" t="n">
+        <v>1.2093</v>
+      </c>
+      <c r="E4985" t="n">
+        <v>1.21632</v>
+      </c>
+      <c r="F4985" t="n">
+        <v>296122</v>
+      </c>
+    </row>
+    <row r="4986">
+      <c r="A4986" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B4986" t="n">
+        <v>1.21552</v>
+      </c>
+      <c r="C4986" t="n">
+        <v>1.22586</v>
+      </c>
+      <c r="D4986" t="n">
+        <v>1.21431</v>
+      </c>
+      <c r="E4986" t="n">
+        <v>1.22484</v>
+      </c>
+      <c r="F4986" t="n">
+        <v>264604</v>
+      </c>
+    </row>
+    <row r="4987">
+      <c r="A4987" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4987" t="n">
+        <v>1.22484</v>
+      </c>
+      <c r="C4987" t="n">
+        <v>1.22737</v>
+      </c>
+      <c r="D4987" t="n">
+        <v>1.22327</v>
+      </c>
+      <c r="E4987" t="n">
+        <v>1.22735</v>
+      </c>
+      <c r="F4987" t="n">
+        <v>28528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4987"/>
+  <dimension ref="A1:F4992"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100191,6 +100191,106 @@
         <v>28528</v>
       </c>
     </row>
+    <row r="4988">
+      <c r="A4988" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B4988" t="n">
+        <v>1.22484</v>
+      </c>
+      <c r="C4988" t="n">
+        <v>1.22886</v>
+      </c>
+      <c r="D4988" t="n">
+        <v>1.21531</v>
+      </c>
+      <c r="E4988" t="n">
+        <v>1.21591</v>
+      </c>
+      <c r="F4988" t="n">
+        <v>284997</v>
+      </c>
+    </row>
+    <row r="4989">
+      <c r="A4989" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B4989" t="n">
+        <v>1.21591</v>
+      </c>
+      <c r="C4989" t="n">
+        <v>1.21758</v>
+      </c>
+      <c r="D4989" t="n">
+        <v>1.21062</v>
+      </c>
+      <c r="E4989" t="n">
+        <v>1.21106</v>
+      </c>
+      <c r="F4989" t="n">
+        <v>261699</v>
+      </c>
+    </row>
+    <row r="4990">
+      <c r="A4990" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B4990" t="n">
+        <v>1.21106</v>
+      </c>
+      <c r="C4990" t="n">
+        <v>1.21398</v>
+      </c>
+      <c r="D4990" t="n">
+        <v>1.20693</v>
+      </c>
+      <c r="E4990" t="n">
+        <v>1.21275</v>
+      </c>
+      <c r="F4990" t="n">
+        <v>289325</v>
+      </c>
+    </row>
+    <row r="4991">
+      <c r="A4991" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B4991" t="n">
+        <v>1.21275</v>
+      </c>
+      <c r="C4991" t="n">
+        <v>1.21628</v>
+      </c>
+      <c r="D4991" t="n">
+        <v>1.21047</v>
+      </c>
+      <c r="E4991" t="n">
+        <v>1.21174</v>
+      </c>
+      <c r="F4991" t="n">
+        <v>266737</v>
+      </c>
+    </row>
+    <row r="4992">
+      <c r="A4992" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4992" t="n">
+        <v>1.21269</v>
+      </c>
+      <c r="C4992" t="n">
+        <v>1.21269</v>
+      </c>
+      <c r="D4992" t="n">
+        <v>1.2106</v>
+      </c>
+      <c r="E4992" t="n">
+        <v>1.21123</v>
+      </c>
+      <c r="F4992" t="n">
+        <v>28815</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4992"/>
+  <dimension ref="A1:F5003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100291,6 +100291,226 @@
         <v>28815</v>
       </c>
     </row>
+    <row r="4993">
+      <c r="A4993" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B4993" t="n">
+        <v>1.21269</v>
+      </c>
+      <c r="C4993" t="n">
+        <v>1.21748</v>
+      </c>
+      <c r="D4993" t="n">
+        <v>1.20899</v>
+      </c>
+      <c r="E4993" t="n">
+        <v>1.21689</v>
+      </c>
+      <c r="F4993" t="n">
+        <v>238744</v>
+      </c>
+    </row>
+    <row r="4994">
+      <c r="A4994" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B4994" t="n">
+        <v>1.21689</v>
+      </c>
+      <c r="C4994" t="n">
+        <v>1.22007</v>
+      </c>
+      <c r="D4994" t="n">
+        <v>1.21196</v>
+      </c>
+      <c r="E4994" t="n">
+        <v>1.21524</v>
+      </c>
+      <c r="F4994" t="n">
+        <v>265076</v>
+      </c>
+    </row>
+    <row r="4995">
+      <c r="A4995" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B4995" t="n">
+        <v>1.21524</v>
+      </c>
+      <c r="C4995" t="n">
+        <v>1.21643</v>
+      </c>
+      <c r="D4995" t="n">
+        <v>1.20956</v>
+      </c>
+      <c r="E4995" t="n">
+        <v>1.21512</v>
+      </c>
+      <c r="F4995" t="n">
+        <v>341533</v>
+      </c>
+    </row>
+    <row r="4996">
+      <c r="A4996" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B4996" t="n">
+        <v>1.21512</v>
+      </c>
+      <c r="C4996" t="n">
+        <v>1.22255</v>
+      </c>
+      <c r="D4996" t="n">
+        <v>1.21335</v>
+      </c>
+      <c r="E4996" t="n">
+        <v>1.22029</v>
+      </c>
+      <c r="F4996" t="n">
+        <v>268434</v>
+      </c>
+    </row>
+    <row r="4997">
+      <c r="A4997" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B4997" t="n">
+        <v>1.22029</v>
+      </c>
+      <c r="C4997" t="n">
+        <v>1.23896</v>
+      </c>
+      <c r="D4997" t="n">
+        <v>1.21843</v>
+      </c>
+      <c r="E4997" t="n">
+        <v>1.23775</v>
+      </c>
+      <c r="F4997" t="n">
+        <v>587012</v>
+      </c>
+    </row>
+    <row r="4998">
+      <c r="A4998" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B4998" t="n">
+        <v>1.23623</v>
+      </c>
+      <c r="C4998" t="n">
+        <v>1.24283</v>
+      </c>
+      <c r="D4998" t="n">
+        <v>1.2338</v>
+      </c>
+      <c r="E4998" t="n">
+        <v>1.23433</v>
+      </c>
+      <c r="F4998" t="n">
+        <v>212510</v>
+      </c>
+    </row>
+    <row r="4999">
+      <c r="A4999" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B4999" t="n">
+        <v>1.23433</v>
+      </c>
+      <c r="C4999" t="n">
+        <v>1.2347</v>
+      </c>
+      <c r="D4999" t="n">
+        <v>1.22622</v>
+      </c>
+      <c r="E4999" t="n">
+        <v>1.22996</v>
+      </c>
+      <c r="F4999" t="n">
+        <v>224896</v>
+      </c>
+    </row>
+    <row r="5000">
+      <c r="A5000" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B5000" t="n">
+        <v>1.22996</v>
+      </c>
+      <c r="C5000" t="n">
+        <v>1.23013</v>
+      </c>
+      <c r="D5000" t="n">
+        <v>1.22417</v>
+      </c>
+      <c r="E5000" t="n">
+        <v>1.22839</v>
+      </c>
+      <c r="F5000" t="n">
+        <v>233908</v>
+      </c>
+    </row>
+    <row r="5001">
+      <c r="A5001" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B5001" t="n">
+        <v>1.22839</v>
+      </c>
+      <c r="C5001" t="n">
+        <v>1.23086</v>
+      </c>
+      <c r="D5001" t="n">
+        <v>1.22125</v>
+      </c>
+      <c r="E5001" t="n">
+        <v>1.22226</v>
+      </c>
+      <c r="F5001" t="n">
+        <v>280367</v>
+      </c>
+    </row>
+    <row r="5002">
+      <c r="A5002" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B5002" t="n">
+        <v>1.22226</v>
+      </c>
+      <c r="C5002" t="n">
+        <v>1.22378</v>
+      </c>
+      <c r="D5002" t="n">
+        <v>1.2187</v>
+      </c>
+      <c r="E5002" t="n">
+        <v>1.22255</v>
+      </c>
+      <c r="F5002" t="n">
+        <v>241906</v>
+      </c>
+    </row>
+    <row r="5003">
+      <c r="A5003" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B5003" t="n">
+        <v>1.22255</v>
+      </c>
+      <c r="C5003" t="n">
+        <v>1.22361</v>
+      </c>
+      <c r="D5003" t="n">
+        <v>1.22092</v>
+      </c>
+      <c r="E5003" t="n">
+        <v>1.22285</v>
+      </c>
+      <c r="F5003" t="n">
+        <v>26514</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5013"/>
+  <dimension ref="A1:F5018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100661,6 +100661,106 @@
         <v>8736</v>
       </c>
     </row>
+    <row r="5014" spans="1:6">
+      <c r="A5014" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B5014">
+        <v>1.25321</v>
+      </c>
+      <c r="C5014">
+        <v>1.26153</v>
+      </c>
+      <c r="D5014">
+        <v>1.25245</v>
+      </c>
+      <c r="E5014">
+        <v>1.25946</v>
+      </c>
+      <c r="F5014">
+        <v>217046</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:6">
+      <c r="A5015" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B5015">
+        <v>1.25983</v>
+      </c>
+      <c r="C5015">
+        <v>1.26441</v>
+      </c>
+      <c r="D5015">
+        <v>1.25909</v>
+      </c>
+      <c r="E5015">
+        <v>1.26265</v>
+      </c>
+      <c r="F5015">
+        <v>214861</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:6">
+      <c r="A5016" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B5016">
+        <v>1.26265</v>
+      </c>
+      <c r="C5016">
+        <v>1.2715</v>
+      </c>
+      <c r="D5016">
+        <v>1.26065</v>
+      </c>
+      <c r="E5016">
+        <v>1.26933</v>
+      </c>
+      <c r="F5016">
+        <v>255920</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:6">
+      <c r="A5017" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B5017">
+        <v>1.26933</v>
+      </c>
+      <c r="C5017">
+        <v>1.2733</v>
+      </c>
+      <c r="D5017">
+        <v>1.26643</v>
+      </c>
+      <c r="E5017">
+        <v>1.26942</v>
+      </c>
+      <c r="F5017">
+        <v>273056</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:6">
+      <c r="A5018" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B5018">
+        <v>1.26942</v>
+      </c>
+      <c r="C5018">
+        <v>1.27047</v>
+      </c>
+      <c r="D5018">
+        <v>1.26895</v>
+      </c>
+      <c r="E5018">
+        <v>1.27027</v>
+      </c>
+      <c r="F5018">
+        <v>7902</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5018"/>
+  <dimension ref="A1:F5028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100761,6 +100761,206 @@
         <v>7902</v>
       </c>
     </row>
+    <row r="5019" spans="1:6">
+      <c r="A5019" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B5019">
+        <v>1.26942</v>
+      </c>
+      <c r="C5019">
+        <v>1.27108</v>
+      </c>
+      <c r="D5019">
+        <v>1.26035</v>
+      </c>
+      <c r="E5019">
+        <v>1.26231</v>
+      </c>
+      <c r="F5019">
+        <v>308030</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:6">
+      <c r="A5020" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5020">
+        <v>1.26231</v>
+      </c>
+      <c r="C5020">
+        <v>1.27159</v>
+      </c>
+      <c r="D5020">
+        <v>1.26099</v>
+      </c>
+      <c r="E5020">
+        <v>1.2701</v>
+      </c>
+      <c r="F5020">
+        <v>298679</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:6">
+      <c r="A5021" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5021">
+        <v>1.26231</v>
+      </c>
+      <c r="C5021">
+        <v>1.27159</v>
+      </c>
+      <c r="D5021">
+        <v>1.26099</v>
+      </c>
+      <c r="E5021">
+        <v>1.2701</v>
+      </c>
+      <c r="F5021">
+        <v>298679</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:6">
+      <c r="A5022" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B5022">
+        <v>1.26231</v>
+      </c>
+      <c r="C5022">
+        <v>1.27159</v>
+      </c>
+      <c r="D5022">
+        <v>1.26099</v>
+      </c>
+      <c r="E5022">
+        <v>1.2701</v>
+      </c>
+      <c r="F5022">
+        <v>310618</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:6">
+      <c r="A5023" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B5023">
+        <v>1.26895</v>
+      </c>
+      <c r="C5023">
+        <v>1.27245</v>
+      </c>
+      <c r="D5023">
+        <v>1.26036</v>
+      </c>
+      <c r="E5023">
+        <v>1.26325</v>
+      </c>
+      <c r="F5023">
+        <v>297094</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:6">
+      <c r="A5024" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B5024">
+        <v>1.26325</v>
+      </c>
+      <c r="C5024">
+        <v>1.26511</v>
+      </c>
+      <c r="D5024">
+        <v>1.25775</v>
+      </c>
+      <c r="E5024">
+        <v>1.25903</v>
+      </c>
+      <c r="F5024">
+        <v>309508</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:6">
+      <c r="A5025" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B5025">
+        <v>1.25903</v>
+      </c>
+      <c r="C5025">
+        <v>1.26137</v>
+      </c>
+      <c r="D5025">
+        <v>1.25863</v>
+      </c>
+      <c r="E5025">
+        <v>1.26034</v>
+      </c>
+      <c r="F5025">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:6">
+      <c r="A5026" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B5026">
+        <v>1.25903</v>
+      </c>
+      <c r="C5026">
+        <v>1.26137</v>
+      </c>
+      <c r="D5026">
+        <v>1.25516</v>
+      </c>
+      <c r="E5026">
+        <v>1.25595</v>
+      </c>
+      <c r="F5026">
+        <v>242940</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:6">
+      <c r="A5027" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B5027">
+        <v>1.25595</v>
+      </c>
+      <c r="C5027">
+        <v>1.26127</v>
+      </c>
+      <c r="D5027">
+        <v>1.2544</v>
+      </c>
+      <c r="E5027">
+        <v>1.25876</v>
+      </c>
+      <c r="F5027">
+        <v>310900</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:6">
+      <c r="A5028" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B5028">
+        <v>1.25876</v>
+      </c>
+      <c r="C5028">
+        <v>1.26014</v>
+      </c>
+      <c r="D5028">
+        <v>1.25774</v>
+      </c>
+      <c r="E5028">
+        <v>1.25861</v>
+      </c>
+      <c r="F5028">
+        <v>71480</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5028"/>
+  <dimension ref="A1:F5044"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100961,6 +100961,326 @@
         <v>71480</v>
       </c>
     </row>
+    <row r="5029" spans="1:6">
+      <c r="A5029" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B5029">
+        <v>1.25876</v>
+      </c>
+      <c r="C5029">
+        <v>1.26014</v>
+      </c>
+      <c r="D5029">
+        <v>1.25021</v>
+      </c>
+      <c r="E5029">
+        <v>1.25469</v>
+      </c>
+      <c r="F5029">
+        <v>355940</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:6">
+      <c r="A5030" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B5030">
+        <v>1.25336</v>
+      </c>
+      <c r="C5030">
+        <v>1.25908</v>
+      </c>
+      <c r="D5030">
+        <v>1.25263</v>
+      </c>
+      <c r="E5030">
+        <v>1.25545</v>
+      </c>
+      <c r="F5030">
+        <v>228595</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:6">
+      <c r="A5031" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B5031">
+        <v>1.25545</v>
+      </c>
+      <c r="C5031">
+        <v>1.26151</v>
+      </c>
+      <c r="D5031">
+        <v>1.2514</v>
+      </c>
+      <c r="E5031">
+        <v>1.25624</v>
+      </c>
+      <c r="F5031">
+        <v>263165</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:6">
+      <c r="A5032" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B5032">
+        <v>1.25624</v>
+      </c>
+      <c r="C5032">
+        <v>1.26345</v>
+      </c>
+      <c r="D5032">
+        <v>1.25002</v>
+      </c>
+      <c r="E5032">
+        <v>1.26169</v>
+      </c>
+      <c r="F5032">
+        <v>307179</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:6">
+      <c r="A5033" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B5033">
+        <v>1.26169</v>
+      </c>
+      <c r="C5033">
+        <v>1.27937</v>
+      </c>
+      <c r="D5033">
+        <v>1.26119</v>
+      </c>
+      <c r="E5033">
+        <v>1.27663</v>
+      </c>
+      <c r="F5033">
+        <v>406356</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:6">
+      <c r="A5034" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B5034">
+        <v>1.27663</v>
+      </c>
+      <c r="C5034">
+        <v>1.27903</v>
+      </c>
+      <c r="D5034">
+        <v>1.26677</v>
+      </c>
+      <c r="E5034">
+        <v>1.26793</v>
+      </c>
+      <c r="F5034">
+        <v>319945</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:6">
+      <c r="A5035" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B5035">
+        <v>1.26793</v>
+      </c>
+      <c r="C5035">
+        <v>1.26802</v>
+      </c>
+      <c r="D5035">
+        <v>1.26569</v>
+      </c>
+      <c r="E5035">
+        <v>1.26791</v>
+      </c>
+      <c r="F5035">
+        <v>12566</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:6">
+      <c r="A5036" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B5036">
+        <v>1.26793</v>
+      </c>
+      <c r="C5036">
+        <v>1.27617</v>
+      </c>
+      <c r="D5036">
+        <v>1.26124</v>
+      </c>
+      <c r="E5036">
+        <v>1.26957</v>
+      </c>
+      <c r="F5036">
+        <v>1575045</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:6">
+      <c r="A5037" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B5037">
+        <v>1.26793</v>
+      </c>
+      <c r="C5037">
+        <v>1.27617</v>
+      </c>
+      <c r="D5037">
+        <v>1.26124</v>
+      </c>
+      <c r="E5037">
+        <v>1.26957</v>
+      </c>
+      <c r="F5037">
+        <v>1575045</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:6">
+      <c r="A5038" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5038">
+        <v>1.26957</v>
+      </c>
+      <c r="C5038">
+        <v>1.27102</v>
+      </c>
+      <c r="D5038">
+        <v>1.269</v>
+      </c>
+      <c r="E5038">
+        <v>1.26945</v>
+      </c>
+      <c r="F5038">
+        <v>16958</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:6">
+      <c r="A5039" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5039">
+        <v>1.26957</v>
+      </c>
+      <c r="C5039">
+        <v>1.27102</v>
+      </c>
+      <c r="D5039">
+        <v>1.26865</v>
+      </c>
+      <c r="E5039">
+        <v>1.26867</v>
+      </c>
+      <c r="F5039">
+        <v>27440</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:6">
+      <c r="A5040" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5040">
+        <v>1.26957</v>
+      </c>
+      <c r="C5040">
+        <v>1.27305</v>
+      </c>
+      <c r="D5040">
+        <v>1.26844</v>
+      </c>
+      <c r="E5040">
+        <v>1.27179</v>
+      </c>
+      <c r="F5040">
+        <v>118353</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:6">
+      <c r="A5041" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5041">
+        <v>1.26957</v>
+      </c>
+      <c r="C5041">
+        <v>1.27352</v>
+      </c>
+      <c r="D5041">
+        <v>1.26844</v>
+      </c>
+      <c r="E5041">
+        <v>1.27344</v>
+      </c>
+      <c r="F5041">
+        <v>152043</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:6">
+      <c r="A5042" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5042">
+        <v>1.26957</v>
+      </c>
+      <c r="C5042">
+        <v>1.28024</v>
+      </c>
+      <c r="D5042">
+        <v>1.26844</v>
+      </c>
+      <c r="E5042">
+        <v>1.27999</v>
+      </c>
+      <c r="F5042">
+        <v>301490</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:6">
+      <c r="A5043" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5043">
+        <v>1.26957</v>
+      </c>
+      <c r="C5043">
+        <v>1.28273</v>
+      </c>
+      <c r="D5043">
+        <v>1.26844</v>
+      </c>
+      <c r="E5043">
+        <v>1.27233</v>
+      </c>
+      <c r="F5043">
+        <v>717755</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:6">
+      <c r="A5044" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B5044">
+        <v>1.26957</v>
+      </c>
+      <c r="C5044">
+        <v>1.28273</v>
+      </c>
+      <c r="D5044">
+        <v>1.26844</v>
+      </c>
+      <c r="E5044">
+        <v>1.27233</v>
+      </c>
+      <c r="F5044">
+        <v>717757</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GlobalReserves/FXData/GBPUSD.xlsx
+++ b/GlobalReserves/FXData/GBPUSD.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5051"/>
+  <dimension ref="A1:F5063"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101471,6 +101471,246 @@
         <v>23164</v>
       </c>
     </row>
+    <row r="5052">
+      <c r="A5052" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B5052" t="n">
+        <v>1.26644</v>
+      </c>
+      <c r="C5052" t="n">
+        <v>1.27295</v>
+      </c>
+      <c r="D5052" t="n">
+        <v>1.26565</v>
+      </c>
+      <c r="E5052" t="n">
+        <v>1.26816</v>
+      </c>
+      <c r="F5052" t="n">
+        <v>270883</v>
+      </c>
+    </row>
+    <row r="5053">
+      <c r="A5053" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B5053" t="n">
+        <v>1.26816</v>
+      </c>
+      <c r="C5053" t="n">
+        <v>1.2771</v>
+      </c>
+      <c r="D5053" t="n">
+        <v>1.26113</v>
+      </c>
+      <c r="E5053" t="n">
+        <v>1.27158</v>
+      </c>
+      <c r="F5053" t="n">
+        <v>333038</v>
+      </c>
+    </row>
+    <row r="5054">
+      <c r="A5054" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B5054" t="n">
+        <v>1.27158</v>
+      </c>
+      <c r="C5054" t="n">
+        <v>1.27668</v>
+      </c>
+      <c r="D5054" t="n">
+        <v>1.26734</v>
+      </c>
+      <c r="E5054" t="n">
+        <v>1.27473</v>
+      </c>
+      <c r="F5054" t="n">
+        <v>231296</v>
+      </c>
+    </row>
+    <row r="5055">
+      <c r="A5055" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B5055" t="n">
+        <v>1.27473</v>
+      </c>
+      <c r="C5055" t="n">
+        <v>1.2765</v>
+      </c>
+      <c r="D5055" t="n">
+        <v>1.26893</v>
+      </c>
+      <c r="E5055" t="n">
+        <v>1.27093</v>
+      </c>
+      <c r="F5055" t="n">
+        <v>223706</v>
+      </c>
+    </row>
+    <row r="5056">
+      <c r="A5056" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B5056" t="n">
+        <v>1.27093</v>
+      </c>
+      <c r="C5056" t="n">
+        <v>1.2744</v>
+      </c>
+      <c r="D5056" t="n">
+        <v>1.26861</v>
+      </c>
+      <c r="E5056" t="n">
+        <v>1.27419</v>
+      </c>
+      <c r="F5056" t="n">
+        <v>208032</v>
+      </c>
+    </row>
+    <row r="5057">
+      <c r="A5057" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B5057" t="n">
+        <v>1.27419</v>
+      </c>
+      <c r="C5057" t="n">
+        <v>1.27741</v>
+      </c>
+      <c r="D5057" t="n">
+        <v>1.26901</v>
+      </c>
+      <c r="E5057" t="n">
+        <v>1.27602</v>
+      </c>
+      <c r="F5057" t="n">
+        <v>712150</v>
+      </c>
+    </row>
+    <row r="5058">
+      <c r="A5058" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B5058" t="n">
+        <v>1.27602</v>
+      </c>
+      <c r="C5058" t="n">
+        <v>1.27856</v>
+      </c>
+      <c r="D5058" t="n">
+        <v>1.27195</v>
+      </c>
+      <c r="E5058" t="n">
+        <v>1.27479</v>
+      </c>
+      <c r="F5058" t="n">
+        <v>302144</v>
+      </c>
+    </row>
+    <row r="5059">
+      <c r="A5059" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B5059" t="n">
+        <v>1.27236</v>
+      </c>
+      <c r="C5059" t="n">
+        <v>1.27651</v>
+      </c>
+      <c r="D5059" t="n">
+        <v>1.27128</v>
+      </c>
+      <c r="E5059" t="n">
+        <v>1.27261</v>
+      </c>
+      <c r="F5059" t="n">
+        <v>184002</v>
+      </c>
+    </row>
+    <row r="5060">
+      <c r="A5060" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B5060" t="n">
+        <v>1.27261</v>
+      </c>
+      <c r="C5060" t="n">
+        <v>1.2729</v>
+      </c>
+      <c r="D5060" t="n">
+        <v>1.26192</v>
+      </c>
+      <c r="E5060" t="n">
+        <v>1.26357</v>
+      </c>
+      <c r="F5060" t="n">
+        <v>336602</v>
+      </c>
+    </row>
+    <row r="5061">
+      <c r="A5061" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B5061" t="n">
+        <v>1.26357</v>
+      </c>
+      <c r="C5061" t="n">
+        <v>1.26962</v>
+      </c>
+      <c r="D5061" t="n">
+        <v>1.25964</v>
+      </c>
+      <c r="E5061" t="n">
+        <v>1.2676</v>
+      </c>
+      <c r="F5061" t="n">
+        <v>294553</v>
+      </c>
+    </row>
+    <row r="5062">
+      <c r="A5062" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B5062" t="n">
+        <v>1.2676</v>
+      </c>
+      <c r="C5062" t="n">
+        <v>1.27081</v>
+      </c>
+      <c r="D5062" t="n">
+        <v>1.26479</v>
+      </c>
+      <c r="E5062" t="n">
+        <v>1.27053</v>
+      </c>
+      <c r="F5062" t="n">
+        <v>287601</v>
+      </c>
+    </row>
+    <row r="5063">
+      <c r="A5063" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B5063" t="n">
+        <v>1.27053</v>
+      </c>
+      <c r="C5063" t="n">
+        <v>1.27145</v>
+      </c>
+      <c r="D5063" t="n">
+        <v>1.26655</v>
+      </c>
+      <c r="E5063" t="n">
+        <v>1.26788</v>
+      </c>
+      <c r="F5063" t="n">
+        <v>92429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
